--- a/해커톤/윽박이6개월이내.xlsx
+++ b/해커톤/윽박이6개월이내.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlska\Documents\Coala_study\해커톤\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BEA91B-327E-420D-A1E5-1FAADF981052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="300">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="302">
   <si>
     <t>thumbnail</t>
   </si>
@@ -46,6 +46,12 @@
     <t>video_length</t>
   </si>
   <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>youtuber_name</t>
+  </si>
+  <si>
     <t>https://i.ytimg.com/vi/_kQtmL0UeLs/hqdefault.jpg?sqp=-oaymwEZCNACELwBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLC2yiQTr4ANaUoSNuBf5qQ1_PHtVA</t>
   </si>
   <si>
@@ -914,20 +920,27 @@
   </si>
   <si>
     <t>10:06</t>
+  </si>
+  <si>
+    <t>윽박이</t>
+  </si>
+  <si>
+    <t>title_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -935,7 +948,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -945,6 +958,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -992,19 +1012,27 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1046,7 +1074,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1078,9 +1106,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1112,6 +1158,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1287,60 +1351,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>109</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>208</v>
@@ -1360,22 +1433,25 @@
       <c r="K2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
         <v>110</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>208</v>
@@ -1395,22 +1471,25 @@
       <c r="K3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
         <v>111</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>208</v>
@@ -1430,22 +1509,25 @@
       <c r="K4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" t="s">
         <v>112</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>208</v>
@@ -1465,22 +1547,25 @@
       <c r="K5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6">
         <v>4</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>113</v>
       </c>
       <c r="F6" t="s">
         <v>208</v>
@@ -1500,22 +1585,25 @@
       <c r="K6" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
         <v>114</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>208</v>
@@ -1535,22 +1623,25 @@
       <c r="K7" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s">
         <v>115</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>208</v>
@@ -1570,22 +1661,25 @@
       <c r="K8" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s">
         <v>116</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>208</v>
@@ -1605,22 +1699,25 @@
       <c r="K9" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" t="s">
         <v>117</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>208</v>
@@ -1640,22 +1737,25 @@
       <c r="K10" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="B11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" t="s">
         <v>118</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>208</v>
@@ -1675,22 +1775,25 @@
       <c r="K11" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="B12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" t="s">
         <v>119</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>208</v>
@@ -1710,22 +1813,25 @@
       <c r="K12" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="B13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" t="s">
         <v>120</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>208</v>
@@ -1745,22 +1851,25 @@
       <c r="K13" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="B14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14" t="s">
         <v>121</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>208</v>
@@ -1780,22 +1889,25 @@
       <c r="K14" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="B15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D15" t="s">
         <v>122</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>208</v>
@@ -1815,22 +1927,25 @@
       <c r="K15" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="B16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" t="s">
         <v>123</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>208</v>
@@ -1850,22 +1965,25 @@
       <c r="K16" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="B17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17" t="s">
         <v>124</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>208</v>
@@ -1885,22 +2003,25 @@
       <c r="K17" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="B18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18" t="s">
         <v>125</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>208</v>
@@ -1920,22 +2041,25 @@
       <c r="K18" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="B19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D19" t="s">
         <v>126</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>208</v>
@@ -1955,22 +2079,25 @@
       <c r="K19" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <v>18</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="B20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s">
         <v>127</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20" t="s">
         <v>208</v>
@@ -1990,22 +2117,25 @@
       <c r="K20" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="B21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D21" t="s">
         <v>128</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>208</v>
@@ -2025,22 +2155,25 @@
       <c r="K21" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="B22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22" t="s">
         <v>129</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22" t="s">
         <v>208</v>
@@ -2060,21 +2193,21 @@
       <c r="K22" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <v>21</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="B23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23" t="s">
         <v>130</v>
       </c>
       <c r="F23" t="s">
@@ -2095,22 +2228,25 @@
       <c r="K23" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>22</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="B24" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24" t="s">
         <v>131</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24" t="s">
         <v>208</v>
@@ -2130,22 +2266,25 @@
       <c r="K24" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>23</v>
-      </c>
-      <c r="C25">
-        <v>23</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="B25" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D25" t="s">
         <v>132</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25" t="s">
         <v>208</v>
@@ -2165,22 +2304,25 @@
       <c r="K25" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>24</v>
-      </c>
-      <c r="C26">
-        <v>24</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="B26" t="s">
+        <v>300</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D26" t="s">
         <v>133</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="F26" t="s">
         <v>208</v>
@@ -2200,22 +2342,25 @@
       <c r="K26" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="B27" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27" t="s">
         <v>134</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>208</v>
@@ -2235,22 +2380,25 @@
       <c r="K27" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>33</v>
-      </c>
-      <c r="C28">
-        <v>33</v>
-      </c>
-      <c r="D28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D28" t="s">
         <v>135</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>208</v>
@@ -2270,22 +2418,25 @@
       <c r="K28" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>34</v>
-      </c>
-      <c r="C29">
-        <v>34</v>
-      </c>
-      <c r="D29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>300</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D29" t="s">
         <v>136</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
       </c>
       <c r="F29" t="s">
         <v>208</v>
@@ -2305,22 +2456,25 @@
       <c r="K29" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>35</v>
-      </c>
-      <c r="C30">
-        <v>35</v>
-      </c>
-      <c r="D30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>300</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E30" t="s">
+      <c r="D30" t="s">
         <v>137</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>208</v>
@@ -2340,22 +2494,25 @@
       <c r="K30" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>36</v>
-      </c>
-      <c r="C31">
-        <v>36</v>
-      </c>
-      <c r="D31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>300</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D31" t="s">
         <v>138</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
       </c>
       <c r="F31" t="s">
         <v>208</v>
@@ -2375,22 +2532,25 @@
       <c r="K31" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>37</v>
-      </c>
-      <c r="C32">
-        <v>37</v>
-      </c>
-      <c r="D32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>300</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E32" t="s">
+      <c r="D32" t="s">
         <v>139</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>208</v>
@@ -2410,22 +2570,25 @@
       <c r="K32" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>38</v>
-      </c>
-      <c r="C33">
-        <v>38</v>
-      </c>
-      <c r="D33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D33" t="s">
         <v>140</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>208</v>
@@ -2445,22 +2608,25 @@
       <c r="K33" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>39</v>
-      </c>
-      <c r="C34">
-        <v>39</v>
-      </c>
-      <c r="D34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E34" t="s">
+      <c r="D34" t="s">
         <v>141</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
       </c>
       <c r="F34" t="s">
         <v>208</v>
@@ -2480,22 +2646,25 @@
       <c r="K34" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>40</v>
-      </c>
-      <c r="C35">
-        <v>40</v>
-      </c>
-      <c r="D35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>300</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E35" t="s">
+      <c r="D35" t="s">
         <v>142</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
       </c>
       <c r="F35" t="s">
         <v>208</v>
@@ -2515,22 +2684,25 @@
       <c r="K35" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>41</v>
-      </c>
-      <c r="C36">
-        <v>41</v>
-      </c>
-      <c r="D36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E36" t="s">
+      <c r="D36" t="s">
         <v>143</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
       </c>
       <c r="F36" t="s">
         <v>208</v>
@@ -2550,22 +2722,25 @@
       <c r="K36" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>42</v>
-      </c>
-      <c r="C37">
-        <v>42</v>
-      </c>
-      <c r="D37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>300</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E37" t="s">
+      <c r="D37" t="s">
         <v>144</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>208</v>
@@ -2585,22 +2760,25 @@
       <c r="K37" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>43</v>
-      </c>
-      <c r="C38">
-        <v>43</v>
-      </c>
-      <c r="D38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>300</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E38" t="s">
+      <c r="D38" t="s">
         <v>145</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
       </c>
       <c r="F38" t="s">
         <v>208</v>
@@ -2620,22 +2798,25 @@
       <c r="K38" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>44</v>
-      </c>
-      <c r="C39">
-        <v>44</v>
-      </c>
-      <c r="D39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>300</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E39" t="s">
+      <c r="D39" t="s">
         <v>146</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
       </c>
       <c r="F39" t="s">
         <v>208</v>
@@ -2655,22 +2836,25 @@
       <c r="K39" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>45</v>
-      </c>
-      <c r="C40">
-        <v>45</v>
-      </c>
-      <c r="D40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>300</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E40" t="s">
+      <c r="D40" t="s">
         <v>147</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>208</v>
@@ -2690,22 +2874,25 @@
       <c r="K40" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>46</v>
-      </c>
-      <c r="C41">
-        <v>46</v>
-      </c>
-      <c r="D41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>300</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E41" t="s">
+      <c r="D41" t="s">
         <v>148</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>208</v>
@@ -2725,22 +2912,25 @@
       <c r="K41" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>47</v>
-      </c>
-      <c r="C42">
-        <v>47</v>
-      </c>
-      <c r="D42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>300</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E42" t="s">
+      <c r="D42" t="s">
         <v>149</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
       </c>
       <c r="F42" t="s">
         <v>208</v>
@@ -2760,22 +2950,25 @@
       <c r="K42" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>48</v>
-      </c>
-      <c r="C43">
-        <v>48</v>
-      </c>
-      <c r="D43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>300</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D43" t="s">
         <v>150</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
       </c>
       <c r="F43" t="s">
         <v>208</v>
@@ -2795,22 +2988,25 @@
       <c r="K43" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>49</v>
-      </c>
-      <c r="B44">
-        <v>49</v>
-      </c>
-      <c r="C44">
-        <v>49</v>
-      </c>
-      <c r="D44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>300</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E44" t="s">
+      <c r="D44" t="s">
         <v>151</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
       </c>
       <c r="F44" t="s">
         <v>208</v>
@@ -2830,22 +3026,25 @@
       <c r="K44" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>56</v>
-      </c>
-      <c r="B45">
-        <v>56</v>
-      </c>
-      <c r="C45">
-        <v>56</v>
-      </c>
-      <c r="D45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>300</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D45" t="s">
         <v>152</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
       </c>
       <c r="F45" t="s">
         <v>208</v>
@@ -2865,22 +3064,25 @@
       <c r="K45" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>57</v>
-      </c>
-      <c r="B46">
-        <v>57</v>
-      </c>
-      <c r="C46">
-        <v>57</v>
-      </c>
-      <c r="D46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>300</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D46" t="s">
         <v>153</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
       </c>
       <c r="F46" t="s">
         <v>208</v>
@@ -2900,22 +3102,25 @@
       <c r="K46" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>58</v>
-      </c>
-      <c r="B47">
-        <v>58</v>
-      </c>
-      <c r="C47">
-        <v>58</v>
-      </c>
-      <c r="D47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>300</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E47" t="s">
+      <c r="D47" t="s">
         <v>154</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
       </c>
       <c r="F47" t="s">
         <v>208</v>
@@ -2935,22 +3140,25 @@
       <c r="K47" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>59</v>
-      </c>
-      <c r="B48">
-        <v>59</v>
-      </c>
-      <c r="C48">
-        <v>59</v>
-      </c>
-      <c r="D48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>300</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E48" t="s">
+      <c r="D48" t="s">
         <v>155</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>208</v>
@@ -2970,22 +3178,25 @@
       <c r="K48" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>60</v>
-      </c>
-      <c r="B49">
-        <v>60</v>
-      </c>
-      <c r="C49">
-        <v>60</v>
-      </c>
-      <c r="D49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>300</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E49" t="s">
+      <c r="D49" t="s">
         <v>156</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>208</v>
@@ -3005,22 +3216,25 @@
       <c r="K49" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>61</v>
-      </c>
-      <c r="B50">
-        <v>61</v>
-      </c>
-      <c r="C50">
-        <v>61</v>
-      </c>
-      <c r="D50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>300</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E50" t="s">
+      <c r="D50" t="s">
         <v>157</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
       </c>
       <c r="F50" t="s">
         <v>208</v>
@@ -3040,22 +3254,25 @@
       <c r="K50" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>62</v>
-      </c>
-      <c r="B51">
-        <v>62</v>
-      </c>
-      <c r="C51">
-        <v>62</v>
-      </c>
-      <c r="D51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>300</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E51" t="s">
+      <c r="D51" t="s">
         <v>158</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>208</v>
@@ -3075,22 +3292,25 @@
       <c r="K51" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>63</v>
-      </c>
-      <c r="B52">
-        <v>63</v>
-      </c>
-      <c r="C52">
-        <v>63</v>
-      </c>
-      <c r="D52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>300</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E52" t="s">
+      <c r="D52" t="s">
         <v>159</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>208</v>
@@ -3110,22 +3330,25 @@
       <c r="K52" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>64</v>
-      </c>
-      <c r="B53">
-        <v>64</v>
-      </c>
-      <c r="C53">
-        <v>64</v>
-      </c>
-      <c r="D53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>300</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E53" t="s">
+      <c r="D53" t="s">
         <v>160</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>208</v>
@@ -3145,22 +3368,25 @@
       <c r="K53" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>65</v>
-      </c>
-      <c r="B54">
-        <v>65</v>
-      </c>
-      <c r="C54">
-        <v>65</v>
-      </c>
-      <c r="D54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>300</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E54" t="s">
+      <c r="D54" t="s">
         <v>161</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>208</v>
@@ -3180,22 +3406,25 @@
       <c r="K54" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>66</v>
-      </c>
-      <c r="B55">
-        <v>66</v>
-      </c>
-      <c r="C55">
-        <v>66</v>
-      </c>
-      <c r="D55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>300</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E55" t="s">
+      <c r="D55" t="s">
         <v>162</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>208</v>
@@ -3215,22 +3444,25 @@
       <c r="K55" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>67</v>
-      </c>
-      <c r="B56">
-        <v>67</v>
-      </c>
-      <c r="C56">
-        <v>67</v>
-      </c>
-      <c r="D56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>300</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E56" t="s">
+      <c r="D56" t="s">
         <v>163</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>208</v>
@@ -3250,22 +3482,25 @@
       <c r="K56" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>68</v>
-      </c>
-      <c r="B57">
-        <v>68</v>
-      </c>
-      <c r="C57">
-        <v>68</v>
-      </c>
-      <c r="D57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>300</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E57" t="s">
+      <c r="D57" t="s">
         <v>164</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>208</v>
@@ -3285,22 +3520,25 @@
       <c r="K57" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>69</v>
-      </c>
-      <c r="B58">
-        <v>69</v>
-      </c>
-      <c r="C58">
-        <v>69</v>
-      </c>
-      <c r="D58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>300</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E58" t="s">
+      <c r="D58" t="s">
         <v>165</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>208</v>
@@ -3320,22 +3558,25 @@
       <c r="K58" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>70</v>
-      </c>
-      <c r="B59">
-        <v>70</v>
-      </c>
-      <c r="C59">
-        <v>70</v>
-      </c>
-      <c r="D59" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>300</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E59" t="s">
+      <c r="D59" t="s">
         <v>166</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>208</v>
@@ -3355,22 +3596,25 @@
       <c r="K59" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>71</v>
-      </c>
-      <c r="B60">
-        <v>71</v>
-      </c>
-      <c r="C60">
-        <v>71</v>
-      </c>
-      <c r="D60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>300</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E60" t="s">
+      <c r="D60" t="s">
         <v>167</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>208</v>
@@ -3390,22 +3634,25 @@
       <c r="K60" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>72</v>
-      </c>
-      <c r="B61">
-        <v>72</v>
-      </c>
-      <c r="C61">
-        <v>72</v>
-      </c>
-      <c r="D61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>300</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E61" t="s">
+      <c r="D61" t="s">
         <v>168</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>208</v>
@@ -3425,22 +3672,25 @@
       <c r="K61" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>79</v>
-      </c>
-      <c r="B62">
-        <v>79</v>
-      </c>
-      <c r="C62">
-        <v>79</v>
-      </c>
-      <c r="D62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>300</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E62" t="s">
+      <c r="D62" t="s">
         <v>169</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>208</v>
@@ -3460,22 +3710,25 @@
       <c r="K62" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>80</v>
-      </c>
-      <c r="B63">
-        <v>80</v>
-      </c>
-      <c r="C63">
-        <v>80</v>
-      </c>
-      <c r="D63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>300</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E63" t="s">
+      <c r="D63" t="s">
         <v>170</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>208</v>
@@ -3495,22 +3748,25 @@
       <c r="K63" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>81</v>
-      </c>
-      <c r="B64">
-        <v>81</v>
-      </c>
-      <c r="C64">
-        <v>81</v>
-      </c>
-      <c r="D64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>300</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E64" t="s">
+      <c r="D64" t="s">
         <v>171</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>208</v>
@@ -3530,22 +3786,25 @@
       <c r="K64" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>82</v>
-      </c>
-      <c r="B65">
-        <v>82</v>
-      </c>
-      <c r="C65">
-        <v>82</v>
-      </c>
-      <c r="D65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>300</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E65" t="s">
+      <c r="D65" t="s">
         <v>172</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>208</v>
@@ -3565,22 +3824,25 @@
       <c r="K65" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>83</v>
-      </c>
-      <c r="B66">
-        <v>83</v>
-      </c>
-      <c r="C66">
-        <v>83</v>
-      </c>
-      <c r="D66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>300</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E66" t="s">
+      <c r="D66" t="s">
         <v>173</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>208</v>
@@ -3600,22 +3862,25 @@
       <c r="K66" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>84</v>
-      </c>
-      <c r="B67">
-        <v>84</v>
-      </c>
-      <c r="C67">
-        <v>84</v>
-      </c>
-      <c r="D67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>300</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E67" t="s">
+      <c r="D67" t="s">
         <v>174</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>208</v>
@@ -3635,22 +3900,25 @@
       <c r="K67" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>85</v>
-      </c>
-      <c r="B68">
-        <v>85</v>
-      </c>
-      <c r="C68">
-        <v>85</v>
-      </c>
-      <c r="D68" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>300</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E68" t="s">
+      <c r="D68" t="s">
         <v>175</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>208</v>
@@ -3670,22 +3938,25 @@
       <c r="K68" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>86</v>
-      </c>
-      <c r="B69">
-        <v>86</v>
-      </c>
-      <c r="C69">
-        <v>86</v>
-      </c>
-      <c r="D69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>300</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E69" t="s">
+      <c r="D69" t="s">
         <v>176</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>208</v>
@@ -3705,22 +3976,25 @@
       <c r="K69" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>87</v>
-      </c>
-      <c r="B70">
-        <v>87</v>
-      </c>
-      <c r="C70">
-        <v>87</v>
-      </c>
-      <c r="D70" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>300</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E70" t="s">
+      <c r="D70" t="s">
         <v>177</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>208</v>
@@ -3740,22 +4014,25 @@
       <c r="K70" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>88</v>
-      </c>
-      <c r="B71">
-        <v>88</v>
-      </c>
-      <c r="C71">
-        <v>88</v>
-      </c>
-      <c r="D71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>300</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E71" t="s">
+      <c r="D71" t="s">
         <v>178</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
       </c>
       <c r="F71" t="s">
         <v>208</v>
@@ -3775,22 +4052,25 @@
       <c r="K71" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>89</v>
-      </c>
-      <c r="B72">
-        <v>89</v>
-      </c>
-      <c r="C72">
-        <v>89</v>
-      </c>
-      <c r="D72" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>300</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E72" t="s">
+      <c r="D72" t="s">
         <v>179</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>208</v>
@@ -3810,22 +4090,25 @@
       <c r="K72" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>90</v>
-      </c>
-      <c r="B73">
-        <v>90</v>
-      </c>
-      <c r="C73">
-        <v>90</v>
-      </c>
-      <c r="D73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>300</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E73" t="s">
+      <c r="D73" t="s">
         <v>180</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
       </c>
       <c r="F73" t="s">
         <v>208</v>
@@ -3845,22 +4128,25 @@
       <c r="K73" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>91</v>
-      </c>
-      <c r="B74">
-        <v>91</v>
-      </c>
-      <c r="C74">
-        <v>91</v>
-      </c>
-      <c r="D74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>300</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E74" t="s">
+      <c r="D74" t="s">
         <v>181</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>208</v>
@@ -3880,22 +4166,25 @@
       <c r="K74" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>92</v>
-      </c>
-      <c r="B75">
-        <v>92</v>
-      </c>
-      <c r="C75">
-        <v>92</v>
-      </c>
-      <c r="D75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>300</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E75" t="s">
+      <c r="D75" t="s">
         <v>182</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>208</v>
@@ -3915,22 +4204,25 @@
       <c r="K75" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>93</v>
-      </c>
-      <c r="B76">
-        <v>93</v>
-      </c>
-      <c r="C76">
-        <v>93</v>
-      </c>
-      <c r="D76" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>300</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E76" t="s">
+      <c r="D76" t="s">
         <v>183</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
       </c>
       <c r="F76" t="s">
         <v>208</v>
@@ -3950,22 +4242,25 @@
       <c r="K76" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>94</v>
-      </c>
-      <c r="B77">
-        <v>94</v>
-      </c>
-      <c r="C77">
-        <v>94</v>
-      </c>
-      <c r="D77" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>300</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E77" t="s">
+      <c r="D77" t="s">
         <v>184</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
       </c>
       <c r="F77" t="s">
         <v>208</v>
@@ -3985,22 +4280,25 @@
       <c r="K77" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>95</v>
-      </c>
-      <c r="B78">
-        <v>95</v>
-      </c>
-      <c r="C78">
-        <v>95</v>
-      </c>
-      <c r="D78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>300</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E78" t="s">
+      <c r="D78" t="s">
         <v>185</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>208</v>
@@ -4020,22 +4318,25 @@
       <c r="K78" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>96</v>
-      </c>
-      <c r="B79">
-        <v>96</v>
-      </c>
-      <c r="C79">
-        <v>96</v>
-      </c>
-      <c r="D79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>300</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E79" t="s">
+      <c r="D79" t="s">
         <v>186</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
       </c>
       <c r="F79" t="s">
         <v>208</v>
@@ -4055,22 +4356,25 @@
       <c r="K79" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>97</v>
-      </c>
-      <c r="B80">
-        <v>97</v>
-      </c>
-      <c r="C80">
-        <v>97</v>
-      </c>
-      <c r="D80" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>300</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E80" t="s">
+      <c r="D80" t="s">
         <v>187</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
       </c>
       <c r="F80" t="s">
         <v>208</v>
@@ -4090,22 +4394,25 @@
       <c r="K80" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>98</v>
-      </c>
-      <c r="B81">
-        <v>98</v>
-      </c>
-      <c r="C81">
-        <v>98</v>
-      </c>
-      <c r="D81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>300</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E81" t="s">
+      <c r="D81" t="s">
         <v>188</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>208</v>
@@ -4125,22 +4432,25 @@
       <c r="K81" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>99</v>
-      </c>
-      <c r="B82">
-        <v>99</v>
-      </c>
-      <c r="C82">
-        <v>99</v>
-      </c>
-      <c r="D82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>300</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E82" t="s">
+      <c r="D82" t="s">
         <v>189</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
       </c>
       <c r="F82" t="s">
         <v>208</v>
@@ -4160,22 +4470,25 @@
       <c r="K82" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="L82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>100</v>
-      </c>
-      <c r="B83">
-        <v>100</v>
-      </c>
-      <c r="C83">
-        <v>100</v>
-      </c>
-      <c r="D83" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>300</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E83" t="s">
+      <c r="D83" t="s">
         <v>190</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>208</v>
@@ -4195,22 +4508,25 @@
       <c r="K83" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>101</v>
-      </c>
-      <c r="B84">
-        <v>101</v>
-      </c>
-      <c r="C84">
-        <v>101</v>
-      </c>
-      <c r="D84" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>300</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E84" t="s">
+      <c r="D84" t="s">
         <v>191</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>208</v>
@@ -4230,22 +4546,25 @@
       <c r="K84" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>102</v>
-      </c>
-      <c r="B85">
-        <v>102</v>
-      </c>
-      <c r="C85">
-        <v>102</v>
-      </c>
-      <c r="D85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>300</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E85" t="s">
+      <c r="D85" t="s">
         <v>192</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
       </c>
       <c r="F85" t="s">
         <v>208</v>
@@ -4265,22 +4584,25 @@
       <c r="K85" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>103</v>
-      </c>
-      <c r="B86">
-        <v>103</v>
-      </c>
-      <c r="C86">
-        <v>103</v>
-      </c>
-      <c r="D86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>300</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E86" t="s">
+      <c r="D86" t="s">
         <v>193</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
       </c>
       <c r="F86" t="s">
         <v>208</v>
@@ -4300,22 +4622,25 @@
       <c r="K86" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>104</v>
-      </c>
-      <c r="B87">
-        <v>104</v>
-      </c>
-      <c r="C87">
-        <v>104</v>
-      </c>
-      <c r="D87" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>300</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E87" t="s">
+      <c r="D87" t="s">
         <v>194</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
       </c>
       <c r="F87" t="s">
         <v>208</v>
@@ -4335,22 +4660,25 @@
       <c r="K87" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>105</v>
-      </c>
-      <c r="B88">
-        <v>105</v>
-      </c>
-      <c r="C88">
-        <v>105</v>
-      </c>
-      <c r="D88" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>300</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E88" t="s">
+      <c r="D88" t="s">
         <v>195</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
       </c>
       <c r="F88" t="s">
         <v>208</v>
@@ -4370,22 +4698,25 @@
       <c r="K88" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>106</v>
-      </c>
-      <c r="B89">
-        <v>106</v>
-      </c>
-      <c r="C89">
-        <v>106</v>
-      </c>
-      <c r="D89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>300</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E89" t="s">
+      <c r="D89" t="s">
         <v>196</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
       </c>
       <c r="F89" t="s">
         <v>208</v>
@@ -4405,22 +4736,25 @@
       <c r="K89" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>107</v>
-      </c>
-      <c r="B90">
-        <v>107</v>
-      </c>
-      <c r="C90">
-        <v>107</v>
-      </c>
-      <c r="D90" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>300</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E90" t="s">
+      <c r="D90" t="s">
         <v>197</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>208</v>
@@ -4440,22 +4774,25 @@
       <c r="K90" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="L90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>108</v>
-      </c>
-      <c r="B91">
-        <v>108</v>
-      </c>
-      <c r="C91">
-        <v>108</v>
-      </c>
-      <c r="D91" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>300</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E91" t="s">
+      <c r="D91" t="s">
         <v>198</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
       </c>
       <c r="F91" t="s">
         <v>208</v>
@@ -4475,22 +4812,25 @@
       <c r="K91" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="L91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>109</v>
-      </c>
-      <c r="B92">
-        <v>109</v>
-      </c>
-      <c r="C92">
-        <v>109</v>
-      </c>
-      <c r="D92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>300</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E92" t="s">
+      <c r="D92" t="s">
         <v>199</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
       </c>
       <c r="F92" t="s">
         <v>208</v>
@@ -4510,22 +4850,25 @@
       <c r="K92" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>110</v>
-      </c>
-      <c r="B93">
-        <v>110</v>
-      </c>
-      <c r="C93">
-        <v>110</v>
-      </c>
-      <c r="D93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>300</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E93" t="s">
+      <c r="D93" t="s">
         <v>200</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>208</v>
@@ -4545,22 +4888,25 @@
       <c r="K93" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>111</v>
-      </c>
-      <c r="B94">
-        <v>111</v>
-      </c>
-      <c r="C94">
-        <v>111</v>
-      </c>
-      <c r="D94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>300</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E94" t="s">
+      <c r="D94" t="s">
         <v>201</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
       </c>
       <c r="F94" t="s">
         <v>208</v>
@@ -4580,22 +4926,25 @@
       <c r="K94" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="L94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>112</v>
-      </c>
-      <c r="B95">
-        <v>112</v>
-      </c>
-      <c r="C95">
-        <v>112</v>
-      </c>
-      <c r="D95" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>300</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E95" t="s">
+      <c r="D95" t="s">
         <v>202</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
       </c>
       <c r="F95" t="s">
         <v>208</v>
@@ -4615,22 +4964,25 @@
       <c r="K95" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>113</v>
-      </c>
-      <c r="B96">
-        <v>113</v>
-      </c>
-      <c r="C96">
-        <v>113</v>
-      </c>
-      <c r="D96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>300</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E96" t="s">
+      <c r="D96" t="s">
         <v>203</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
       </c>
       <c r="F96" t="s">
         <v>208</v>
@@ -4650,22 +5002,25 @@
       <c r="K96" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="L96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>114</v>
-      </c>
-      <c r="B97">
-        <v>114</v>
-      </c>
-      <c r="C97">
-        <v>114</v>
-      </c>
-      <c r="D97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>300</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E97" t="s">
+      <c r="D97" t="s">
         <v>204</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>208</v>
@@ -4685,22 +5040,25 @@
       <c r="K97" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>115</v>
-      </c>
-      <c r="B98">
-        <v>115</v>
-      </c>
-      <c r="C98">
-        <v>115</v>
-      </c>
-      <c r="D98" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>300</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E98" t="s">
+      <c r="D98" t="s">
         <v>205</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
       </c>
       <c r="F98" t="s">
         <v>208</v>
@@ -4720,22 +5078,25 @@
       <c r="K98" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>116</v>
-      </c>
-      <c r="B99">
-        <v>116</v>
-      </c>
-      <c r="C99">
-        <v>116</v>
-      </c>
-      <c r="D99" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>300</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E99" t="s">
+      <c r="D99" t="s">
         <v>206</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
       </c>
       <c r="F99" t="s">
         <v>208</v>
@@ -4755,22 +5116,25 @@
       <c r="K99" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>117</v>
-      </c>
-      <c r="B100">
-        <v>117</v>
-      </c>
-      <c r="C100">
-        <v>117</v>
-      </c>
-      <c r="D100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>300</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E100" t="s">
+      <c r="D100" t="s">
         <v>207</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
       </c>
       <c r="F100" t="s">
         <v>208</v>
@@ -4790,109 +5154,114 @@
       <c r="K100" t="s">
         <v>299</v>
       </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
-    <hyperlink ref="D38" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="D40" r:id="rId39"/>
-    <hyperlink ref="D41" r:id="rId40"/>
-    <hyperlink ref="D42" r:id="rId41"/>
-    <hyperlink ref="D43" r:id="rId42"/>
-    <hyperlink ref="D44" r:id="rId43"/>
-    <hyperlink ref="D45" r:id="rId44"/>
-    <hyperlink ref="D46" r:id="rId45"/>
-    <hyperlink ref="D47" r:id="rId46"/>
-    <hyperlink ref="D48" r:id="rId47"/>
-    <hyperlink ref="D49" r:id="rId48"/>
-    <hyperlink ref="D50" r:id="rId49"/>
-    <hyperlink ref="D51" r:id="rId50"/>
-    <hyperlink ref="D52" r:id="rId51"/>
-    <hyperlink ref="D53" r:id="rId52"/>
-    <hyperlink ref="D54" r:id="rId53"/>
-    <hyperlink ref="D55" r:id="rId54"/>
-    <hyperlink ref="D56" r:id="rId55"/>
-    <hyperlink ref="D57" r:id="rId56"/>
-    <hyperlink ref="D58" r:id="rId57"/>
-    <hyperlink ref="D59" r:id="rId58"/>
-    <hyperlink ref="D60" r:id="rId59"/>
-    <hyperlink ref="D61" r:id="rId60"/>
-    <hyperlink ref="D62" r:id="rId61"/>
-    <hyperlink ref="D63" r:id="rId62"/>
-    <hyperlink ref="D64" r:id="rId63"/>
-    <hyperlink ref="D65" r:id="rId64"/>
-    <hyperlink ref="D66" r:id="rId65"/>
-    <hyperlink ref="D67" r:id="rId66"/>
-    <hyperlink ref="D68" r:id="rId67"/>
-    <hyperlink ref="D69" r:id="rId68"/>
-    <hyperlink ref="D70" r:id="rId69"/>
-    <hyperlink ref="D71" r:id="rId70"/>
-    <hyperlink ref="D72" r:id="rId71"/>
-    <hyperlink ref="D73" r:id="rId72"/>
-    <hyperlink ref="D74" r:id="rId73"/>
-    <hyperlink ref="D75" r:id="rId74"/>
-    <hyperlink ref="D76" r:id="rId75"/>
-    <hyperlink ref="D77" r:id="rId76"/>
-    <hyperlink ref="D78" r:id="rId77"/>
-    <hyperlink ref="D79" r:id="rId78"/>
-    <hyperlink ref="D80" r:id="rId79"/>
-    <hyperlink ref="D81" r:id="rId80"/>
-    <hyperlink ref="D82" r:id="rId81"/>
-    <hyperlink ref="D83" r:id="rId82"/>
-    <hyperlink ref="D84" r:id="rId83"/>
-    <hyperlink ref="D85" r:id="rId84"/>
-    <hyperlink ref="D86" r:id="rId85"/>
-    <hyperlink ref="D87" r:id="rId86"/>
-    <hyperlink ref="D88" r:id="rId87"/>
-    <hyperlink ref="D89" r:id="rId88"/>
-    <hyperlink ref="D90" r:id="rId89"/>
-    <hyperlink ref="D91" r:id="rId90"/>
-    <hyperlink ref="D92" r:id="rId91"/>
-    <hyperlink ref="D93" r:id="rId92"/>
-    <hyperlink ref="D94" r:id="rId93"/>
-    <hyperlink ref="D95" r:id="rId94"/>
-    <hyperlink ref="D96" r:id="rId95"/>
-    <hyperlink ref="D97" r:id="rId96"/>
-    <hyperlink ref="D98" r:id="rId97"/>
-    <hyperlink ref="D99" r:id="rId98"/>
-    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId100"/>
 </worksheet>
 </file>